--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1541700.965541958</v>
+        <v>-1542137.281216405</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996847</v>
+        <v>218615.8834996849</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>60.5878041045185</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2533856659365</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -741,22 +741,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>37.19765990237287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>182.7569243905847</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>87.69771951011529</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>139.0040357308909</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>149.1036530955504</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4336883875072</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>163.7085909465852</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>93.84568153259187</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>217.4185597844393</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>32.47472538141858</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.9767719300082</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>187.7878108918191</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.94584799978678</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>149.1075249924107</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.0040357308909</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
         <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>269.5643511603106</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>298.9434052799212</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>99.55784188676301</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0484892653209</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>237.5986042436308</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>79.19456938825897</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>93.4622282009166</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
@@ -1427,16 +1427,16 @@
         <v>160.4420255081129</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
         <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.82535758250305</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673262</v>
+        <v>56.13210615673259</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
         <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>12.67923573529609</v>
+        <v>192.4238797007581</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>98.22002304103526</v>
       </c>
       <c r="W13" t="n">
         <v>191.4003800527419</v>
@@ -1613,7 +1613,7 @@
         <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>89.50013974745855</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.1152213678984</v>
@@ -1625,7 +1625,7 @@
         <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.194569388259</v>
+        <v>79.19456938825901</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091663</v>
+        <v>93.46222820091664</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
         <v>241.7150239479851</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>89.50013974745841</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>41.24131294683082</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548196</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126141</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.06139100944772</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079554</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831532</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673262</v>
+        <v>56.13210615673263</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>138.952706237445</v>
@@ -1828,10 +1828,10 @@
         <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.511681361740386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459511</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.453352218942</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333756</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171334</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437092</v>
+        <v>56.69561675437097</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472033</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121429</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
         <v>260.9453680083417</v>
@@ -2649,10 +2649,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>84.37298759326558</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133627</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595742</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135785</v>
+        <v>39.2587409813579</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893629</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471574</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290205</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424983</v>
+        <v>38.56948228424989</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694031</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176965</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018697</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877065</v>
+        <v>82.91159610877071</v>
       </c>
       <c r="T28" t="n">
         <v>102.1860947908993</v>
@@ -2773,13 +2773,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019993</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806702</v>
+        <v>91.15373835806707</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C29" t="n">
         <v>249.453352218942</v>
       </c>
       <c r="D29" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634699</v>
       </c>
       <c r="E29" t="n">
         <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213526</v>
       </c>
       <c r="G29" t="n">
         <v>283.2818778187752</v>
@@ -2810,7 +2810,7 @@
         <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437092</v>
+        <v>56.69561675437086</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472022</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615672</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014393</v>
       </c>
       <c r="W29" t="n">
         <v>230.2485119793963</v>
@@ -2858,7 +2858,7 @@
         <v>249.5487702121429</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083417</v>
+        <v>260.9453680083416</v>
       </c>
     </row>
     <row r="30">
@@ -2883,10 +2883,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595731</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135785</v>
+        <v>39.25874098135779</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893618</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471563</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290194</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424983</v>
+        <v>38.56948228424977</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694019</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018685</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877065</v>
+        <v>82.9115961087706</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908993</v>
+        <v>102.1860947908992</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V31" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W31" t="n">
         <v>154.6337686061962</v>
@@ -3016,7 +3016,7 @@
         <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806702</v>
+        <v>91.15373835806696</v>
       </c>
     </row>
     <row r="32">
@@ -3108,7 +3108,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459513</v>
       </c>
       <c r="D33" t="n">
         <v>137.45025063969</v>
@@ -3120,7 +3120,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -3345,7 +3345,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>765.9857413816425</v>
+        <v>776.4444252940141</v>
       </c>
       <c r="C2" t="n">
-        <v>465.7297962645348</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="D2" t="n">
-        <v>465.7297962645348</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="E2" t="n">
-        <v>465.7297962645348</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6190096151092</v>
+        <v>384.3998799773959</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929716</v>
+        <v>372.3362974719879</v>
       </c>
       <c r="H2" t="n">
         <v>39.51502306929716</v>
@@ -4334,10 +4334,10 @@
         <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086301</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>969.826060161718</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N2" t="n">
         <v>1348.157418849434</v>
@@ -4358,22 +4358,22 @@
         <v>1975.751153464858</v>
       </c>
       <c r="T2" t="n">
-        <v>1751.392207195869</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="U2" t="n">
-        <v>1496.506870909863</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="V2" t="n">
-        <v>1159.527596805804</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="W2" t="n">
-        <v>1159.527596805804</v>
+        <v>1613.216223322459</v>
       </c>
       <c r="X2" t="n">
-        <v>1159.527596805804</v>
+        <v>1231.186082843952</v>
       </c>
       <c r="Y2" t="n">
-        <v>765.9857413816425</v>
+        <v>837.6442274197904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680.0512891082512</v>
+        <v>439.9951902914323</v>
       </c>
       <c r="C3" t="n">
-        <v>518.347616349206</v>
+        <v>278.291517532387</v>
       </c>
       <c r="D3" t="n">
-        <v>518.347616349206</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="E3" t="n">
-        <v>371.3196064060772</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="F3" t="n">
-        <v>236.6258083559516</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8973083792362</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H3" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I3" t="n">
         <v>39.51502306929716</v>
@@ -4410,19 +4410,19 @@
         <v>99.76916960240331</v>
       </c>
       <c r="K3" t="n">
-        <v>329.259722162592</v>
+        <v>99.76916960240331</v>
       </c>
       <c r="L3" t="n">
-        <v>329.259722162592</v>
+        <v>451.747808902334</v>
       </c>
       <c r="M3" t="n">
-        <v>634.6852431368632</v>
+        <v>936.7811624125604</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619416</v>
+        <v>1425.779572895113</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403566</v>
+        <v>1817.979523679264</v>
       </c>
       <c r="P3" t="n">
         <v>1817.979523679264</v>
@@ -4431,28 +4431,28 @@
         <v>1975.751153464858</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559804</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572544</v>
+        <v>1822.951666477598</v>
       </c>
       <c r="T3" t="n">
-        <v>1725.594003731763</v>
+        <v>1634.266562643583</v>
       </c>
       <c r="U3" t="n">
-        <v>1507.099211330073</v>
+        <v>1415.771770241893</v>
       </c>
       <c r="V3" t="n">
-        <v>1278.703588778407</v>
+        <v>1231.16881631201</v>
       </c>
       <c r="W3" t="n">
-        <v>1037.387720011717</v>
+        <v>989.8529475453199</v>
       </c>
       <c r="X3" t="n">
-        <v>839.4707318895121</v>
+        <v>791.9359594231145</v>
       </c>
       <c r="Y3" t="n">
-        <v>839.4707318895121</v>
+        <v>599.4146330726933</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.7180674666187</v>
+        <v>209.1309926076169</v>
       </c>
       <c r="C4" t="n">
-        <v>183.7180674666187</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="D4" t="n">
-        <v>183.7180674666187</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="E4" t="n">
-        <v>183.7180674666187</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7180674666187</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7180674666187</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H4" t="n">
-        <v>183.7180674666187</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I4" t="n">
         <v>39.51502306929716</v>
@@ -4507,31 +4507,31 @@
         <v>571.5742683152296</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.0369269689186</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="R4" t="n">
-        <v>444.4533719081961</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="S4" t="n">
-        <v>444.4533719081961</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="T4" t="n">
-        <v>444.4533719081961</v>
+        <v>431.1661514153398</v>
       </c>
       <c r="U4" t="n">
-        <v>444.4533719081961</v>
+        <v>431.1661514153398</v>
       </c>
       <c r="V4" t="n">
-        <v>183.7180674666187</v>
+        <v>431.1661514153398</v>
       </c>
       <c r="W4" t="n">
-        <v>183.7180674666187</v>
+        <v>431.1661514153398</v>
       </c>
       <c r="X4" t="n">
-        <v>183.7180674666187</v>
+        <v>431.1661514153398</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.7180674666187</v>
+        <v>209.1309926076169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.741738882293</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.741738882293</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="D5" t="n">
-        <v>883.9177741095161</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9177741095161</v>
+        <v>465.7297962645348</v>
       </c>
       <c r="F5" t="n">
-        <v>557.2170787685998</v>
+        <v>455.6190096151092</v>
       </c>
       <c r="G5" t="n">
-        <v>545.1534962631919</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I5" t="n">
         <v>39.51502306929716</v>
@@ -4568,49 +4568,49 @@
         <v>111.5135673421028</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6539393868856</v>
+        <v>228.7015208236839</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5393124718319</v>
+        <v>576.5868939086301</v>
       </c>
       <c r="M5" t="n">
-        <v>1064.258313848255</v>
+        <v>969.826060161718</v>
       </c>
       <c r="N5" t="n">
-        <v>1442.589672535971</v>
+        <v>1348.157418849434</v>
       </c>
       <c r="O5" t="n">
-        <v>1747.594257008805</v>
+        <v>1653.162003322268</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.751153464858</v>
+        <v>1881.318899778321</v>
       </c>
       <c r="Q5" t="n">
         <v>1975.751153464858</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464858</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464858</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.751153464858</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.751153464858</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="V5" t="n">
-        <v>1638.771879360799</v>
+        <v>1360.904617487006</v>
       </c>
       <c r="W5" t="n">
-        <v>1638.771879360799</v>
+        <v>998.3696873446074</v>
       </c>
       <c r="X5" t="n">
-        <v>1256.741738882293</v>
+        <v>616.3395468661008</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.741738882293</v>
+        <v>616.3395468661008</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>482.9405038215968</v>
+        <v>779.9891465615533</v>
       </c>
       <c r="C6" t="n">
-        <v>321.2368310625516</v>
+        <v>618.285473802508</v>
       </c>
       <c r="D6" t="n">
-        <v>321.2368310625516</v>
+        <v>618.285473802508</v>
       </c>
       <c r="E6" t="n">
-        <v>174.2088211194228</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F6" t="n">
-        <v>39.51502306929716</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G6" t="n">
-        <v>39.51502306929716</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
-        <v>39.51502306929716</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I6" t="n">
         <v>39.51502306929716</v>
@@ -4653,13 +4653,13 @@
         <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.114920842934</v>
+        <v>792.4568729224575</v>
       </c>
       <c r="N6" t="n">
-        <v>1583.551202680707</v>
+        <v>1281.45528340501</v>
       </c>
       <c r="O6" t="n">
-        <v>1975.751153464858</v>
+        <v>1673.655234189161</v>
       </c>
       <c r="P6" t="n">
         <v>1975.751153464858</v>
@@ -4677,19 +4677,19 @@
         <v>1574.482293738529</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336839</v>
+        <v>1409.12008066117</v>
       </c>
       <c r="V6" t="n">
-        <v>1127.591878785173</v>
+        <v>1180.724458109504</v>
       </c>
       <c r="W6" t="n">
-        <v>1032.798261075484</v>
+        <v>939.4085893428141</v>
       </c>
       <c r="X6" t="n">
-        <v>834.8812729532789</v>
+        <v>939.4085893428141</v>
       </c>
       <c r="Y6" t="n">
-        <v>642.3599466028577</v>
+        <v>939.4085893428141</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>251.5812758938056</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="C7" t="n">
-        <v>251.5812758938056</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="D7" t="n">
-        <v>251.5812758938056</v>
+        <v>198.8876682900233</v>
       </c>
       <c r="E7" t="n">
-        <v>99.57226165512444</v>
+        <v>198.8876682900233</v>
       </c>
       <c r="F7" t="n">
-        <v>99.57226165512444</v>
+        <v>198.8876682900233</v>
       </c>
       <c r="G7" t="n">
-        <v>99.57226165512444</v>
+        <v>198.8876682900233</v>
       </c>
       <c r="H7" t="n">
-        <v>99.57226165512444</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I7" t="n">
-        <v>99.57226165512444</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J7" t="n">
         <v>39.51502306929716</v>
@@ -4753,22 +4753,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152296</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3840288043294</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="V7" t="n">
-        <v>251.5812758938056</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="W7" t="n">
-        <v>251.5812758938056</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="X7" t="n">
-        <v>251.5812758938056</v>
+        <v>351.9595614622606</v>
       </c>
       <c r="Y7" t="n">
-        <v>251.5812758938056</v>
+        <v>351.9595614622606</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.884268471904</v>
+        <v>1052.709406656814</v>
       </c>
       <c r="C8" t="n">
-        <v>1173.884268471904</v>
+        <v>1052.709406656814</v>
       </c>
       <c r="D8" t="n">
-        <v>801.0603036991275</v>
+        <v>1052.709406656814</v>
       </c>
       <c r="E8" t="n">
-        <v>801.0603036991275</v>
+        <v>657.9236867629209</v>
       </c>
       <c r="F8" t="n">
-        <v>790.949517049702</v>
+        <v>243.7724960730912</v>
       </c>
       <c r="G8" t="n">
-        <v>374.84553050389</v>
+        <v>231.7089135676832</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4835,19 +4835,19 @@
         <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1689.624883421327</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V8" t="n">
-        <v>1689.624883421327</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="W8" t="n">
-        <v>1689.624883421327</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="X8" t="n">
-        <v>1689.624883421327</v>
+        <v>1052.709406656814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.083027997165</v>
+        <v>1052.709406656814</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.2609332431787</v>
+        <v>682.5605221401534</v>
       </c>
       <c r="C9" t="n">
-        <v>556.5572604841334</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="D9" t="n">
-        <v>417.7186234743454</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="E9" t="n">
-        <v>270.6906135312166</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>331.768955194494</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>816.8023087047204</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1702.129770712397</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1473.73414816073</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1232.418279394041</v>
       </c>
       <c r="X9" t="n">
-        <v>1011.737661613587</v>
+        <v>1034.501291271835</v>
       </c>
       <c r="Y9" t="n">
-        <v>819.2163352631653</v>
+        <v>841.9799649214142</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>54.74814668020969</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1577.101885565023</v>
+        <v>1062.731365739926</v>
       </c>
       <c r="C11" t="n">
-        <v>1287.990811155439</v>
+        <v>773.6202913303425</v>
       </c>
       <c r="D11" t="n">
-        <v>1015.703587761186</v>
+        <v>773.6202913303425</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>471.6572556940583</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289653</v>
+        <v>371.0937790407623</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407624</v>
+        <v>371.0937790407623</v>
       </c>
       <c r="H11" t="n">
         <v>131.0951888956807</v>
@@ -5042,25 +5042,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>441.9411058614141</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L11" t="n">
-        <v>789.8264789463603</v>
+        <v>802.100476605503</v>
       </c>
       <c r="M11" t="n">
-        <v>1274.041158040331</v>
+        <v>1195.339642858591</v>
       </c>
       <c r="N11" t="n">
-        <v>1743.348029568929</v>
+        <v>1664.646514387189</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.328126882646</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P11" t="n">
-        <v>2367.485023338699</v>
+        <v>2379.759020997842</v>
       </c>
       <c r="Q11" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
@@ -5072,19 +5072,19 @@
         <v>2329.09116498087</v>
       </c>
       <c r="U11" t="n">
-        <v>2167.028512952473</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="V11" t="n">
-        <v>2167.028512952473</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="W11" t="n">
-        <v>2167.028512952473</v>
+        <v>1653.159677221234</v>
       </c>
       <c r="X11" t="n">
-        <v>1877.821056731576</v>
+        <v>1363.952221000336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1577.101885565023</v>
+        <v>1363.952221000336</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5106,13 @@
         <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G12" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H12" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
         <v>51.10067436208574</v>
@@ -5124,7 +5124,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>254.6931295205418</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="C13" t="n">
-        <v>177.8998442398311</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H13" t="n">
         <v>51.10067436208574</v>
@@ -5197,7 +5197,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499908</v>
       </c>
       <c r="K13" t="n">
         <v>207.7937882505251</v>
@@ -5209,7 +5209,7 @@
         <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506347</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076874</v>
+        <v>1036.745299076875</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501623</v>
+        <v>896.3890301501625</v>
       </c>
       <c r="U13" t="n">
-        <v>883.5817213266311</v>
+        <v>702.0214748968715</v>
       </c>
       <c r="V13" t="n">
-        <v>715.6691011426627</v>
+        <v>602.8093304109773</v>
       </c>
       <c r="W13" t="n">
-        <v>522.3353839176709</v>
+        <v>409.4756131859855</v>
       </c>
       <c r="X13" t="n">
-        <v>383.9056040706557</v>
+        <v>271.0458333389704</v>
       </c>
       <c r="Y13" t="n">
-        <v>254.6931295205418</v>
+        <v>141.8333587888565</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1351.938821960824</v>
+        <v>1261.534640397734</v>
       </c>
       <c r="C14" t="n">
-        <v>1062.82774755124</v>
+        <v>972.4235659881506</v>
       </c>
       <c r="D14" t="n">
-        <v>782.8264670360725</v>
+        <v>692.4222854729832</v>
       </c>
       <c r="E14" t="n">
-        <v>692.422285472983</v>
+        <v>692.4222854729832</v>
       </c>
       <c r="F14" t="n">
-        <v>371.0937790407624</v>
+        <v>371.0937790407625</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407624</v>
+        <v>371.0937790407625</v>
       </c>
       <c r="H14" t="n">
         <v>131.0951888956807</v>
@@ -5279,25 +5279,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
-        <v>802.100476605503</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1274.041158040331</v>
+        <v>1286.315155699474</v>
       </c>
       <c r="N14" t="n">
-        <v>1743.348029568929</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.328126882646</v>
+        <v>2151.602124541788</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.485023338699</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
@@ -5321,7 +5321,7 @@
         <v>1653.159677221234</v>
       </c>
       <c r="Y14" t="n">
-        <v>1653.159677221234</v>
+        <v>1562.755495658144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
         <v>348.1493171020421</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.747699699744</v>
+        <v>323.2324359795982</v>
       </c>
       <c r="C16" t="n">
-        <v>193.747699699744</v>
+        <v>281.5745441141125</v>
       </c>
       <c r="D16" t="n">
-        <v>193.747699699744</v>
+        <v>221.3253351994842</v>
       </c>
       <c r="E16" t="n">
-        <v>193.747699699744</v>
+        <v>162.1390052184121</v>
       </c>
       <c r="F16" t="n">
-        <v>193.747699699744</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6506353252029</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="H16" t="n">
-        <v>51.10067436208574</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N16" t="n">
         <v>817.7432540506345</v>
@@ -5455,31 +5455,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
         <v>1157.632377415578</v>
       </c>
       <c r="S16" t="n">
-        <v>1036.745299076875</v>
+        <v>1157.632377415578</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501624</v>
+        <v>1017.276108488865</v>
       </c>
       <c r="U16" t="n">
-        <v>702.0214748968713</v>
+        <v>822.9085532355742</v>
       </c>
       <c r="V16" t="n">
-        <v>534.1088547129029</v>
+        <v>654.9959330516058</v>
       </c>
       <c r="W16" t="n">
-        <v>340.7751374879111</v>
+        <v>461.6622158266139</v>
       </c>
       <c r="X16" t="n">
-        <v>202.3453576408959</v>
+        <v>323.2324359795982</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.747699699744</v>
+        <v>323.2324359795982</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
         <v>123.0992186348914</v>
@@ -5522,19 +5522,19 @@
         <v>875.5927382556528</v>
       </c>
       <c r="M17" t="n">
-        <v>1309.007660421797</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O17" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P17" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D18" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E18" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G18" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H18" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5616,22 +5616,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
         <v>1267.641586535707</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670345</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670345</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208573</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208573</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208573</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208573</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672914</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>303.3054476345904</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478544</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614935</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791961</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G20" t="n">
         <v>221.1248745409159</v>
@@ -5753,22 +5753,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810481</v>
+        <v>479.0485364810482</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659943</v>
+        <v>826.9339095659944</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.173075819082</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N20" t="n">
-        <v>1598.504434506798</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470664</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P20" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
         <v>2555.033718104287</v>
@@ -5792,10 +5792,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
         <v>119.4829596720247</v>
@@ -5835,7 +5835,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5893,7 +5893,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F22" t="n">
         <v>52.21328648670347</v>
@@ -5908,25 +5908,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
         <v>628.266068145054</v>
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5981,34 +5981,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N23" t="n">
         <v>1811.631037687489</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073379</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6017,22 +6017,22 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
         <v>185.3119415069887</v>
@@ -6163,10 +6163,10 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P25" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q25" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R25" t="n">
         <v>628.266068145054</v>
@@ -6178,19 +6178,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044542</v>
       </c>
       <c r="D26" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133858</v>
+        <v>878.7372736133854</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413119</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132565</v>
+        <v>308.403447613256</v>
       </c>
       <c r="H26" t="n">
         <v>105.5428488283221</v>
@@ -6224,13 +6224,13 @@
         <v>62.68632565487432</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183885</v>
+        <v>629.5741583183884</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.739858752425</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
         <v>1580.353483178475</v>
@@ -6257,19 +6257,19 @@
         <v>2982.649712340593</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672343</v>
       </c>
       <c r="V26" t="n">
         <v>2650.706453186041</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661399</v>
+        <v>2418.132198661398</v>
       </c>
       <c r="X26" t="n">
         <v>2166.062733800648</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994242</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6297,7 @@
         <v>216.2938509580109</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648133</v>
+        <v>116.3559935047089</v>
       </c>
       <c r="I27" t="n">
         <v>62.68632565487432</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042394</v>
+        <v>252.6345665042398</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836762</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082699</v>
+        <v>167.8197164082702</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374095</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443956</v>
+        <v>76.92869443443962</v>
       </c>
       <c r="I28" t="n">
         <v>62.68632565487432</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487432</v>
+        <v>131.1986842898678</v>
       </c>
       <c r="K28" t="n">
-        <v>96.29051339951772</v>
+        <v>164.8028720345112</v>
       </c>
       <c r="L28" t="n">
-        <v>280.7485576031322</v>
+        <v>392.7844096077336</v>
       </c>
       <c r="M28" t="n">
-        <v>526.1165219036968</v>
+        <v>526.1165219036983</v>
       </c>
       <c r="N28" t="n">
-        <v>771.91332182626</v>
+        <v>771.9133218262615</v>
       </c>
       <c r="O28" t="n">
-        <v>997.7514264949126</v>
+        <v>997.751426494914</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.71991022305</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142494</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R28" t="n">
         <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396072</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295082</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363642</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125423</v>
+        <v>655.791257112543</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476983</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608297</v>
+        <v>398.3037427608302</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708635</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093979</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
         <v>1386.425607044543</v>
@@ -6446,16 +6446,16 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133856</v>
+        <v>878.7372736133862</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413121</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132563</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283221</v>
+        <v>105.542848828322</v>
       </c>
       <c r="I29" t="n">
         <v>62.68632565487432</v>
@@ -6464,10 +6464,10 @@
         <v>262.0593281006429</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183885</v>
+        <v>584.4800274945155</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576298</v>
+        <v>1059.739858752425</v>
       </c>
       <c r="M29" t="n">
         <v>1580.353483178475</v>
@@ -6491,22 +6491,22 @@
         <v>3077.047982991826</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672343</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661398</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>345.0223509347263</v>
       </c>
       <c r="G30" t="n">
-        <v>231.0064684181153</v>
+        <v>216.2938509580109</v>
       </c>
       <c r="H30" t="n">
         <v>131.0686109648133</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042394</v>
+        <v>252.634566504239</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836756</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291946</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082699</v>
+        <v>167.8197164082697</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518031</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374095</v>
+        <v>106.3406640374094</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443956</v>
+        <v>76.92869443443951</v>
       </c>
       <c r="I31" t="n">
         <v>62.68632565487432</v>
@@ -6622,49 +6622,49 @@
         <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074741</v>
+        <v>269.7454881223152</v>
       </c>
       <c r="L31" t="n">
-        <v>392.7844096077337</v>
+        <v>497.7270256955377</v>
       </c>
       <c r="M31" t="n">
-        <v>615.7205318231404</v>
+        <v>743.0949899961023</v>
       </c>
       <c r="N31" t="n">
-        <v>734.1428735727408</v>
+        <v>861.5173317457027</v>
       </c>
       <c r="O31" t="n">
-        <v>959.9809782413934</v>
+        <v>959.9809782413923</v>
       </c>
       <c r="P31" t="n">
-        <v>1150.323920142494</v>
+        <v>1150.323920142493</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142494</v>
+        <v>1150.323920142493</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S31" t="n">
         <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295067</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363629</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125423</v>
+        <v>655.7912571125418</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476972</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608297</v>
+        <v>398.3037427608292</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708626</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>643.1323473443256</v>
       </c>
       <c r="L32" t="n">
         <v>991.0177204292718</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.723276438775</v>
+        <v>1519.665055884242</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328373</v>
+        <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2415.449142602258</v>
       </c>
       <c r="P32" t="n">
-        <v>2732.440623661025</v>
+        <v>2779.014208260193</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549444</v>
+        <v>3008.854631148612</v>
       </c>
       <c r="R32" t="n">
         <v>3008.854631148612</v>
@@ -6756,16 +6756,16 @@
         <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>763.0735629058665</v>
+        <v>777.7861803659711</v>
       </c>
       <c r="D33" t="n">
-        <v>624.2349258960786</v>
+        <v>638.9475433561831</v>
       </c>
       <c r="E33" t="n">
-        <v>477.2069159529498</v>
+        <v>491.9195334130543</v>
       </c>
       <c r="F33" t="n">
-        <v>342.5131179028242</v>
+        <v>357.2257353629286</v>
       </c>
       <c r="G33" t="n">
         <v>228.4972353862132</v>
@@ -6856,19 +6856,19 @@
         <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
-        <v>60.17709262297225</v>
+        <v>136.7231622868854</v>
       </c>
       <c r="K34" t="n">
-        <v>111.9858755362413</v>
+        <v>170.3273500315288</v>
       </c>
       <c r="L34" t="n">
-        <v>212.5929549365008</v>
+        <v>406.3425986336707</v>
       </c>
       <c r="M34" t="n">
-        <v>465.9946302659849</v>
+        <v>659.7442739631549</v>
       </c>
       <c r="N34" t="n">
-        <v>719.8251412174677</v>
+        <v>855.2333104193502</v>
       </c>
       <c r="O34" t="n">
         <v>953.6969569150399</v>
@@ -6938,22 +6938,22 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>567.8831210837625</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687086</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M35" t="n">
-        <v>1473.475434912829</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -6993,22 +6993,22 @@
         <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208574</v>
@@ -7078,31 +7078,31 @@
         <v>51.10067436208574</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>106.8803794431066</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>207.4874588433661</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
         <v>466.8339379212265</v>
@@ -7169,16 +7169,16 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
         <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
         <v>1433.299678999773</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
         <v>219.4208171253267</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7342,10 +7342,10 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
         <v>629.3786802696717</v>
@@ -7363,19 +7363,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,7 +7415,7 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
         <v>1268.831904508741</v>
@@ -7424,7 +7424,7 @@
         <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P41" t="n">
         <v>2344.792518616376</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7485,16 +7485,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E43" t="n">
-        <v>65.91841943632294</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F43" t="n">
-        <v>65.91841943632294</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>64.80580731170521</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>73.07245222190386</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="I43" t="n">
-        <v>96.20682289912145</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="J43" t="n">
         <v>96.20682289912145</v>
@@ -7600,19 +7600,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V43" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X43" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D44" t="n">
         <v>942.7443621478542</v>
@@ -7646,22 +7646,22 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K44" t="n">
-        <v>692.1751396617387</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M44" t="n">
-        <v>1549.108624801147</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N44" t="n">
-        <v>1927.439983488863</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
         <v>2460.60146441775</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K45" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287324</v>
+        <v>54.02211951749102</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="D46" t="n">
         <v>52.21328648670352</v>
@@ -7807,49 +7807,49 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683833</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686428</v>
       </c>
       <c r="M46" t="n">
-        <v>330.4901196166423</v>
+        <v>349.5242082962445</v>
       </c>
       <c r="N46" t="n">
-        <v>448.9124613662427</v>
+        <v>467.9465500458449</v>
       </c>
       <c r="O46" t="n">
-        <v>547.3761078619324</v>
+        <v>566.4101965415346</v>
       </c>
       <c r="P46" t="n">
-        <v>610.3445915900702</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="Q46" t="n">
-        <v>610.3445915900702</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562744</v>
+        <v>583.4760541808921</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794854</v>
+        <v>518.1042375041031</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761174</v>
+        <v>398.7211345007353</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420723</v>
+        <v>305.7929665666901</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670036</v>
+        <v>187.4437015916214</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699116</v>
+        <v>123.9983739945293</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972086</v>
+        <v>69.77035169433864</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>418.7652167305334</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>444.3566395505271</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8058,13 +8058,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>468.1094126619869</v>
       </c>
       <c r="M3" t="n">
-        <v>423.9945298083785</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>600.6529294339227</v>
@@ -8073,7 +8073,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8216,13 +8216,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>297.1946741574619</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>555.5593461905158</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8301,16 +8301,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>213.8427970967407</v>
       </c>
       <c r="N6" t="n">
-        <v>514.2265368634385</v>
+        <v>600.6529294339227</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8529,19 +8529,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>543.4252385523532</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.636916549705133</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>218.5573794811353</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>320.0484892653209</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548873</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250307</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790353</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548192</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126139</v>
+        <v>58.59446668126137</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>59.06139100944768</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079554</v>
+        <v>75.33609373079551</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348593</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831531</v>
+        <v>50.86655653831528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>179.7446439654621</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>68.01347094109337</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>209.4432655324627</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>208.2118397074289</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250307</v>
+        <v>89.82535758250309</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790356</v>
+        <v>34.78403948107257</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548195</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126139</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079555</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348597</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831531</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>119.4086684428723</v>
+        <v>127.9203498046127</v>
       </c>
     </row>
     <row r="17">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1083331.688789108</v>
+        <v>1083331.688789107</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95953.00756177279</v>
+        <v>95953.0075617728</v>
       </c>
       <c r="C2" t="n">
-        <v>95953.00756177279</v>
+        <v>95953.00756177274</v>
       </c>
       <c r="D2" t="n">
-        <v>95953.00756177279</v>
+        <v>95953.00756177276</v>
       </c>
       <c r="E2" t="n">
-        <v>83333.20682993133</v>
+        <v>83333.20682993131</v>
       </c>
       <c r="F2" t="n">
-        <v>83333.20682993134</v>
+        <v>83333.20682993131</v>
       </c>
       <c r="G2" t="n">
-        <v>95953.00756177254</v>
+        <v>95953.00756177249</v>
       </c>
       <c r="H2" t="n">
         <v>95953.00756177257</v>
@@ -26335,25 +26335,25 @@
         <v>95953.0075617726</v>
       </c>
       <c r="J2" t="n">
-        <v>95953.00756177249</v>
+        <v>95953.00756177248</v>
       </c>
       <c r="K2" t="n">
-        <v>95953.00756177249</v>
+        <v>95953.00756177245</v>
       </c>
       <c r="L2" t="n">
-        <v>95953.00756177281</v>
+        <v>95953.00756177284</v>
       </c>
       <c r="M2" t="n">
+        <v>95953.00756177258</v>
+      </c>
+      <c r="N2" t="n">
         <v>95953.00756177257</v>
       </c>
-      <c r="N2" t="n">
-        <v>95953.00756177255</v>
-      </c>
       <c r="O2" t="n">
+        <v>95953.0075617726</v>
+      </c>
+      <c r="P2" t="n">
         <v>95953.00756177257</v>
-      </c>
-      <c r="P2" t="n">
-        <v>95953.00756177263</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422433</v>
+        <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207623</v>
+        <v>65879.57388207621</v>
       </c>
       <c r="M3" t="n">
         <v>23482.5093245656</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732373</v>
+        <v>43541.16890732371</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26439,10 +26439,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357919</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26479,7 +26479,7 @@
         <v>46561.98765560957</v>
       </c>
       <c r="F5" t="n">
-        <v>46561.98765560957</v>
+        <v>46561.98765560956</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26491,7 +26491,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582854</v>
+        <v>58458.01489582853</v>
       </c>
       <c r="K5" t="n">
         <v>58458.01489582854</v>
@@ -26528,40 +26528,40 @@
         <v>-165131.8246171785</v>
       </c>
       <c r="E6" t="n">
-        <v>-188801.3072367712</v>
+        <v>-189053.7032514081</v>
       </c>
       <c r="F6" t="n">
-        <v>-81410.50616100768</v>
+        <v>-81662.90217564449</v>
       </c>
       <c r="G6" t="n">
-        <v>-191860.6160530487</v>
+        <v>-191860.6160530488</v>
       </c>
       <c r="H6" t="n">
         <v>-132472.9298711095</v>
       </c>
       <c r="I6" t="n">
-        <v>-132472.9298711095</v>
+        <v>-132472.9298711094</v>
       </c>
       <c r="J6" t="n">
-        <v>-349542.2997120913</v>
+        <v>-349542.2997120912</v>
       </c>
       <c r="K6" t="n">
-        <v>-138873.8202698481</v>
+        <v>-138873.8202698482</v>
       </c>
       <c r="L6" t="n">
         <v>-203360.5887771156</v>
       </c>
       <c r="M6" t="n">
-        <v>-155955.4391956751</v>
+        <v>-155955.439195675</v>
       </c>
       <c r="N6" t="n">
         <v>-132472.9298711095</v>
       </c>
       <c r="O6" t="n">
-        <v>-176014.0987784332</v>
+        <v>-176014.0987784331</v>
       </c>
       <c r="P6" t="n">
-        <v>-132472.9298711093</v>
+        <v>-132472.9298711094</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,7 +26707,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
         <v>128.6610688615787</v>
@@ -26802,13 +26802,13 @@
         <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
         <v>783.579070685929</v>
@@ -26823,10 +26823,10 @@
         <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415466</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>82.3494673525953</v>
+        <v>82.34946735259525</v>
       </c>
       <c r="M2" t="n">
         <v>29.353136655707</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415466</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415466</v>
+        <v>54.42646113415464</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>329.5153000183204</v>
       </c>
       <c r="C2" t="n">
-        <v>80.86103541458414</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27430,19 +27430,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>149.6005928933018</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>43.35474193556462</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>60.32884406165027</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>91.84312792158704</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>240.9994510272886</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>86.57599039542418</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>52.60125353108774</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>145.0570285464312</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27789,13 +27789,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>13.42860386803866</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>225.653226015743</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.1263321928308</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>141.7052507668447</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27916,10 +27916,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57.8794003536615</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>67.20231948526219</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.71577926664514</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28062,7 +28062,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28071,13 +28071,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>216.3432877903576</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>79.49647998155544</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503295</v>
+        <v>81.65903375748312</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503295</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="L14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="M14" t="n">
-        <v>79.49647998155547</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>81.6590337574832</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503295</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
     </row>
     <row r="17">
@@ -28594,22 +28594,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="M17" t="n">
-        <v>40.58157162934936</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28746,7 +28746,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>12.94297421309901</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28825,25 +28825,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>116.9787331327009</v>
+        <v>116.978733132701</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28965,10 +28965,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F22" t="n">
-        <v>152.0796990554076</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28980,7 +28980,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>59.456666199969</v>
+        <v>105.018432398995</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.71373413187378</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29059,31 +29059,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>40.58157162934964</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>45.56176619902594</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>65.61123256118242</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>83.11144176675748</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675771</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>84.69794424581312</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615787</v>
+        <v>15.49354158420508</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29536,13 +29536,13 @@
         <v>128.6610688615787</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675745</v>
       </c>
       <c r="L29" t="n">
         <v>128.6610688615787</v>
       </c>
       <c r="M29" t="n">
-        <v>83.11144176675742</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N29" t="n">
         <v>128.6610688615787</v>
@@ -29603,10 +29603,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29694,19 +29694,19 @@
         <v>128.6610688615787</v>
       </c>
       <c r="K31" t="n">
+        <v>106.0026425129332</v>
+      </c>
+      <c r="L31" t="n">
         <v>128.6610688615787</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
-        <v>106.0026425129344</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>128.6610688615787</v>
@@ -29773,19 +29773,19 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="M32" t="n">
-        <v>30.77413106708565</v>
       </c>
       <c r="N32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
-        <v>136.7759284867499</v>
+        <v>77.81815591473077</v>
       </c>
       <c r="P32" t="n">
         <v>136.7759284867499</v>
@@ -29794,7 +29794,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
-        <v>136.7759284867499</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>136.7759284867499</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>14.5654912855035</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.56549128550338</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29928,22 +29928,22 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K34" t="n">
-        <v>18.38847996830869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M34" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
-        <v>136.7759284867499</v>
+        <v>77.84514616827774</v>
       </c>
       <c r="O34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30010,25 +30010,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="L35" t="n">
-        <v>40.5815716293493</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30150,16 +30150,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>151.6127747272213</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>23.16225373803866</v>
       </c>
       <c r="N37" t="n">
-        <v>45.561766199026</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30244,16 +30244,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L38" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30414,13 +30414,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30487,10 +30487,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>166.1290651424569</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>116.9787331327008</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,10 +30621,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E43" t="n">
-        <v>165.4563433632006</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30636,10 +30636,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>96.66828602505694</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30718,25 +30718,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>116.9787331327011</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>152.6650248714419</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30879,13 +30879,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>46.68561682995364</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>27.45926462833532</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -32096,7 +32096,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>227.2050045674188</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>257.9585253782969</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34778,13 +34778,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>355.5339790908391</v>
       </c>
       <c r="M3" t="n">
-        <v>308.5106272467386</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>493.9377883662145</v>
@@ -34793,7 +34793,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34936,13 +34936,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>118.3716701834152</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>368.4030316933568</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>98.35889453510082</v>
       </c>
       <c r="N6" t="n">
-        <v>407.5113957957302</v>
+        <v>493.9377883662145</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>436.7100974846449</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35410,13 +35410,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>322.0625123500229</v>
+        <v>334.4604897835004</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
         <v>474.0473449783822</v>
@@ -35425,13 +35425,13 @@
         <v>399.9798962764814</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>177.045148592369</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927762</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506397</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L13" t="n">
         <v>193.5177699405476</v>
@@ -35583,10 +35583,10 @@
         <v>191.3526861985579</v>
       </c>
       <c r="P13" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218512</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L14" t="n">
         <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>476.7077590250786</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
@@ -35662,13 +35662,13 @@
         <v>399.9798962764814</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>312.1205453292541</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499188</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927762</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506393</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35823,7 +35823,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218508</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
-        <v>437.7928506728725</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960499</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -36024,7 +36024,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>33.9436239844883</v>
+        <v>46.88659819758731</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5447655011683</v>
+        <v>359.5447655011685</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36261,10 +36261,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F22" t="n">
-        <v>1.123850630926996</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.56176619902597</v>
       </c>
       <c r="K22" t="n">
         <v>33.9436239844883</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.56176619902593</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O23" t="n">
-        <v>348.6670104907981</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675871</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36531,13 +36531,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>109.1662952173469</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>27.45926462833456</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>434.5108085192284</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051018</v>
+        <v>480.3227208102809</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249279</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230271</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333496</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
         <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247347</v>
+        <v>38.92916522247342</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.20440266160961</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>186.3212567713278</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864289</v>
+        <v>134.6789013090553</v>
       </c>
       <c r="N28" t="n">
         <v>248.279595881377</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451036</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P28" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.5091009287308</v>
+        <v>90.50910092873075</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573419</v>
+        <v>201.386871157342</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300461</v>
+        <v>325.6774741352249</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140496</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M29" t="n">
-        <v>480.3227208102806</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
         <v>510.8139564249279</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230271</v>
+        <v>436.7465077230272</v>
       </c>
       <c r="P29" t="n">
         <v>359.1225804333496</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964645</v>
+        <v>224.0471836964646</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247347</v>
+        <v>38.92916522247353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160966</v>
+        <v>69.20440266160972</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460669</v>
+        <v>139.9462664974215</v>
       </c>
       <c r="L31" t="n">
-        <v>101.6233125255146</v>
+        <v>230.2843813870934</v>
       </c>
       <c r="M31" t="n">
-        <v>225.1880022377846</v>
+        <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451036</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>192.2655978798996</v>
+        <v>192.2655978798997</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>427.9854101106088</v>
+        <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>385.9035947761792</v>
       </c>
       <c r="P32" t="n">
         <v>367.2374400585209</v>
@@ -37090,7 +37090,7 @@
         <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764475</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>77.31926228678094</v>
       </c>
       <c r="K34" t="n">
-        <v>52.33210395279698</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.3992410122646</v>
       </c>
       <c r="M34" t="n">
         <v>255.9612882116002</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065483</v>
+        <v>197.4636731880761</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702749</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
@@ -37306,13 +37306,13 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L35" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
@@ -37324,7 +37324,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37446,16 +37446,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.123850630926996</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>142.3476134628889</v>
       </c>
       <c r="N37" t="n">
-        <v>165.1802932188243</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37710,13 +37710,13 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N41" t="n">
         <v>548.2819527058061</v>
@@ -37798,7 +37798,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3648479675866</v>
+        <v>212.3648479675871</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37917,10 +37917,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E43" t="n">
-        <v>14.96741926690626</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>37.21161982508795</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109243</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1900121762243</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.123850630927054</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444194</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>146.6446243531855</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.10250157069132</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
